--- a/dist/document/dest/2020/10/doctors/111.xlsx
+++ b/dist/document/dest/2020/10/doctors/111.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>114</v>
       </c>
-      <c r="C2" s="1">
-        <v>603060</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>66</v>
       </c>
-      <c r="C3" s="1">
-        <v>227700</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>415</v>
       </c>
-      <c r="C4" s="1">
-        <v>3195500</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
-        <v>69000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>134</v>
       </c>
-      <c r="C6" s="1">
-        <v>1017060</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>105</v>
       </c>
-      <c r="C7" s="1">
-        <v>343875</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>150</v>
       </c>
-      <c r="C8" s="1">
-        <v>1122000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>90</v>
       </c>
-      <c r="C9" s="1">
-        <v>881100</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>810</v>
       </c>
-      <c r="C10" s="1">
-        <v>2089800</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>44</v>
       </c>
-      <c r="C11" s="1">
-        <v>750200</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>30</v>
       </c>
-      <c r="C12" s="1">
-        <v>396000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>238</v>
       </c>
-      <c r="C13" s="1">
-        <v>752080</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>128</v>
       </c>
-      <c r="C14" s="1">
-        <v>872960</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>70</v>
       </c>
-      <c r="C15" s="1">
-        <v>1208900</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>90</v>
       </c>
-      <c r="C16" s="1">
-        <v>310500</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>123300</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>120</v>
       </c>
-      <c r="C18" s="1">
-        <v>785400</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>30</v>
       </c>
-      <c r="C19" s="1">
-        <v>356400</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>60</v>
       </c>
-      <c r="C20" s="1">
-        <v>957000</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>14</v>
       </c>
-      <c r="C21" s="1">
-        <v>16100</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>90</v>
       </c>
-      <c r="C22" s="1">
-        <v>414000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>120</v>
       </c>
-      <c r="C23" s="1">
-        <v>510000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>65</v>
       </c>
-      <c r="C24" s="1">
-        <v>231725</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>60</v>
       </c>
-      <c r="C25" s="1">
-        <v>92400</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>48</v>
       </c>
-      <c r="C26" s="1">
-        <v>950400</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>65</v>
       </c>
-      <c r="C27" s="1">
-        <v>858000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>20</v>
       </c>
-      <c r="C28" s="1">
-        <v>95800</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>60</v>
       </c>
-      <c r="C29" s="1">
-        <v>193200</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>15</v>
       </c>
-      <c r="C30" s="1">
-        <v>44850</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>450</v>
       </c>
-      <c r="C31" s="1">
-        <v>828000</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>554</v>
       </c>
-      <c r="C32" s="1">
-        <v>7008100</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>120</v>
       </c>
-      <c r="C33" s="1">
-        <v>483000</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>180</v>
       </c>
-      <c r="C34" s="1">
-        <v>2277000</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>90</v>
       </c>
-      <c r="C35" s="1">
-        <v>757350</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>60</v>
       </c>
-      <c r="C36" s="1">
-        <v>129000</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>224</v>
       </c>
-      <c r="C37" s="1">
-        <v>1601600</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>210</v>
       </c>
-      <c r="C38" s="1">
-        <v>1362900</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>30</v>
       </c>
-      <c r="C39" s="1">
-        <v>264000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>330</v>
       </c>
-      <c r="C40" s="1">
-        <v>2359500</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>674</v>
       </c>
-      <c r="C41" s="1">
-        <v>3100400</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>120</v>
       </c>
-      <c r="C42" s="1">
-        <v>648600</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>30</v>
       </c>
-      <c r="C43" s="1">
-        <v>155250</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>270</v>
       </c>
-      <c r="C44" s="1">
-        <v>3861000</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>4</v>
       </c>
-      <c r="C45" s="1">
-        <v>440000</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>60</v>
       </c>
-      <c r="C46" s="1">
-        <v>653400</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>60</v>
       </c>
-      <c r="C47" s="1">
-        <v>248400</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>360</v>
       </c>
-      <c r="C48" s="1">
-        <v>455400</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>344</v>
       </c>
-      <c r="C49" s="1">
-        <v>3008280</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>30</v>
       </c>
-      <c r="C50" s="1">
-        <v>136200</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>120</v>
       </c>
-      <c r="C51" s="1">
-        <v>345000</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>450</v>
       </c>
-      <c r="C52" s="1">
-        <v>3861000</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>30</v>
       </c>
-      <c r="C53" s="1">
-        <v>158700</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -977,7 +821,7 @@
         <v>8101</v>
       </c>
       <c r="C54" s="1">
-        <v>53610390</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/111.xlsx
+++ b/dist/document/dest/2020/10/doctors/111.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,431 +402,873 @@
         <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>114</v>
+        <v>224</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1184960</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>52900</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>415</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>74060</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Baci-subti (Bacillus subtilis)</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>74060</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>134</v>
+        <v>81</v>
+      </c>
+      <c r="C6" s="1">
+        <v>279450</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>105</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>51750</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>150</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>72450</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B9" s="1">
-        <v>90</v>
+        <v>580</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4466000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B10" s="1">
-        <v>810</v>
+        <v>60</v>
+      </c>
+      <c r="C10" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Cefactum (Cefdinir 300mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B11" s="1">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="C11" s="1">
+        <v>317400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B12" s="1">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45540</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Cigenol</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>238</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>98250</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>128</v>
+        <v>60</v>
+      </c>
+      <c r="C14" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>70</v>
+        <v>330</v>
+      </c>
+      <c r="C15" s="1">
+        <v>721050</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="C16" s="1">
+        <v>309600</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Daflon (Diosmin, hesperidin)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>30</v>
+        <v>650</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1677000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B18" s="1">
         <v>120</v>
       </c>
+      <c r="C18" s="1">
+        <v>1683000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Esotrax (Esomeprazole 20mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>100870</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>100870</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Flagyl (Metronidazole) 250mg</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>170500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>90</v>
+        <v>14</v>
+      </c>
+      <c r="C22" s="1">
+        <v>238700</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Glucophage 1000mg (Metformin)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>120</v>
+        <v>48</v>
+      </c>
+      <c r="C23" s="1">
+        <v>818400</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Hemol (Methocarbamol 750mg)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>65</v>
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <v>238700</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Herbesser 30mg (Diltiazem)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B25" s="1">
-        <v>60</v>
+        <v>240</v>
+      </c>
+      <c r="C25" s="1">
+        <v>758400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>95480</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Larfix (Lornoxicam 8mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>65</v>
+        <v>98</v>
+      </c>
+      <c r="C27" s="1">
+        <v>668360</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Leolen Forte (CMP, UTP)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>95480</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Mecitil (Flunarizine 5.9mg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>518100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="C30" s="1">
+        <v>392700</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>450</v>
+        <v>60</v>
+      </c>
+      <c r="C31" s="1">
+        <v>392700</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Esotrax (Esomeprazole 20mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>554</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>356400</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Nevol (Nebivolol 2.5mg)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1435500</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Nolpaza (Pantoprazole 40mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2484000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Glucophage 1000mg (Metformin)</v>
       </c>
       <c r="B35" s="1">
-        <v>90</v>
+        <v>180</v>
+      </c>
+      <c r="C35" s="1">
+        <v>765000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v xml:space="preserve">Ospamox (Amox 500mg) </v>
+        <v>Hemol (Methocarbamol 750mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="C36" s="1">
+        <v>49910</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Rabaris (Rabeprazole 20mg)</v>
+        <v>Hemol (Methocarbamol 750mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>224</v>
+        <v>30</v>
+      </c>
+      <c r="C37" s="1">
+        <v>106950</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+        <v>Hemol (Methocarbamol 750mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>210</v>
+        <v>30</v>
+      </c>
+      <c r="C38" s="1">
+        <v>106950</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Rosutrox (Rosuvastatin 10mg)</v>
+        <v>Hemol (Methocarbamol 750mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="C39" s="1">
+        <v>206770</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Hemol (Methocarbamol 750mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>330</v>
+        <v>14</v>
+      </c>
+      <c r="C40" s="1">
+        <v>49910</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>S-cort (Rabamipide 100mg)</v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>674</v>
+        <v>120</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1742400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="C42" s="1">
+        <v>871200</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Seromin (Vitamin A, C, E)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="C43" s="1">
+        <v>930600</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Sotig (Esomeprazole 40mg)</v>
+        <v>Insulatard 100IU/10ml</v>
       </c>
       <c r="B44" s="1">
-        <v>270</v>
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>99000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Stroseca (Ivermectin 6mg)</v>
+        <v>Kim Tiểu Đường (U - 100) Omnican</v>
       </c>
       <c r="B45" s="1">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="C45" s="1">
+        <v>155000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Larfix (Lornoxicam 8mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="C46" s="1">
+        <v>184800</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+        <v>Larfix (Lornoxicam 8mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C47" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Tazilex (Methimazol 5mg)</v>
+        <v>Larfix (Lornoxicam 8mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="C48" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Trimebutine Gerda 200mg</v>
+        <v>Larfix (Lornoxicam 8mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>344</v>
+        <v>89</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1174800</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+        <v>Leolen Forte (CMP, UTP)</v>
       </c>
       <c r="B50" s="1">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="C50" s="1">
+        <v>67060</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Verist (Betahistine 16mg)</v>
+        <v>Leolen Forte (CMP, UTP)</v>
       </c>
       <c r="B51" s="1">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="C51" s="1">
+        <v>143700</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
+        <v>Leolen Forte (CMP, UTP)</v>
       </c>
       <c r="B52" s="1">
-        <v>450</v>
+        <v>30</v>
+      </c>
+      <c r="C52" s="1">
+        <v>143700</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2530</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>120</v>
+      </c>
+      <c r="C54" s="1">
+        <v>220800</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>600</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1104000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>30</v>
+      </c>
+      <c r="C56" s="1">
+        <v>379500</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>600</v>
+      </c>
+      <c r="C57" s="1">
+        <v>7590000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Nevol (Nebivolol 2.5mg)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>230</v>
+      </c>
+      <c r="C58" s="1">
+        <v>925750</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1">
+        <v>189750</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>90</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45</v>
+      </c>
+      <c r="C62" s="1">
+        <v>378675</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Rabaris (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>79</v>
+      </c>
+      <c r="C65" s="1">
+        <v>564850</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>60</v>
+      </c>
+      <c r="C66" s="1">
+        <v>389400</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>65</v>
+      </c>
+      <c r="C67" s="1">
+        <v>500500</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>85</v>
+      </c>
+      <c r="C68" s="1">
+        <v>607750</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>60</v>
+      </c>
+      <c r="C69" s="1">
+        <v>429000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>210</v>
+      </c>
+      <c r="C70" s="1">
+        <v>966000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>60</v>
+      </c>
+      <c r="C71" s="1">
+        <v>324300</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>30</v>
+      </c>
+      <c r="C72" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>50</v>
+      </c>
+      <c r="C73" s="1">
+        <v>715000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B75" s="1">
+        <v>30</v>
+      </c>
+      <c r="C75" s="1">
+        <v>262350</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>60</v>
+      </c>
+      <c r="C76" s="1">
+        <v>117300</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>630</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5405400</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>30</v>
+      </c>
+      <c r="C78" s="1">
+        <v>158700</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>120</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1254000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B54" s="1">
-        <v>8101</v>
-      </c>
-      <c r="C54" s="1">
-        <v>NaN</v>
+      <c r="B80" s="1">
+        <v>7916</v>
+      </c>
+      <c r="C80" s="1">
+        <v>52993485</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C54"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C80"/>
   </ignoredErrors>
 </worksheet>
 </file>